--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>54.82987066666666</v>
+        <v>0.331241</v>
       </c>
       <c r="H2">
-        <v>164.489612</v>
+        <v>0.9937229999999999</v>
       </c>
       <c r="I2">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="J2">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>6169.094731627967</v>
+        <v>20.21948272345967</v>
       </c>
       <c r="R2">
-        <v>55521.85258465171</v>
+        <v>181.975344511137</v>
       </c>
       <c r="S2">
-        <v>0.3197567086793456</v>
+        <v>0.04126550538474153</v>
       </c>
       <c r="T2">
-        <v>0.3197567086793456</v>
+        <v>0.04126550538474152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>54.82987066666666</v>
+        <v>0.331241</v>
       </c>
       <c r="H3">
-        <v>164.489612</v>
+        <v>0.9937229999999999</v>
       </c>
       <c r="I3">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="J3">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>5829.20842077573</v>
+        <v>35.21571003230599</v>
       </c>
       <c r="R3">
-        <v>52462.87578698157</v>
+        <v>316.941390290754</v>
       </c>
       <c r="S3">
-        <v>0.3021397109169208</v>
+        <v>0.0718709816586727</v>
       </c>
       <c r="T3">
-        <v>0.3021397109169209</v>
+        <v>0.0718709816586727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>54.82987066666666</v>
+        <v>0.331241</v>
       </c>
       <c r="H4">
-        <v>164.489612</v>
+        <v>0.9937229999999999</v>
       </c>
       <c r="I4">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="J4">
-        <v>0.9762630652055824</v>
+        <v>0.2019242199214145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>6836.827335139244</v>
+        <v>43.50466604598265</v>
       </c>
       <c r="R4">
-        <v>61531.44601625319</v>
+        <v>391.541994413844</v>
       </c>
       <c r="S4">
-        <v>0.3543666456093159</v>
+        <v>0.08878773287800031</v>
       </c>
       <c r="T4">
-        <v>0.354366645609316</v>
+        <v>0.08878773287800031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.967313</v>
       </c>
       <c r="I5">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="J5">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>111.287483585232</v>
+        <v>60.37651733792745</v>
       </c>
       <c r="R5">
-        <v>1001.587352267088</v>
+        <v>543.3886560413471</v>
       </c>
       <c r="S5">
-        <v>0.005768256286612403</v>
+        <v>0.1232211296102772</v>
       </c>
       <c r="T5">
-        <v>0.005768256286612403</v>
+        <v>0.1232211296102772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.967313</v>
       </c>
       <c r="I6">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="J6">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>105.1560990166193</v>
@@ -818,10 +818,10 @@
         <v>946.4048911495739</v>
       </c>
       <c r="S6">
-        <v>0.005450454172267249</v>
+        <v>0.2146108102545086</v>
       </c>
       <c r="T6">
-        <v>0.00545045417226725</v>
+        <v>0.2146108102545086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.967313</v>
       </c>
       <c r="I7">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="J7">
-        <v>0.01761131325912771</v>
+        <v>0.6029571246591579</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>123.3330566207064</v>
+        <v>129.9073898047071</v>
       </c>
       <c r="R7">
-        <v>1109.997509586358</v>
+        <v>1169.166508242364</v>
       </c>
       <c r="S7">
-        <v>0.006392602800248054</v>
+        <v>0.265125184794372</v>
       </c>
       <c r="T7">
-        <v>0.006392602800248055</v>
+        <v>0.265125184794372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3440333333333334</v>
+        <v>0.320077</v>
       </c>
       <c r="H8">
-        <v>1.0321</v>
+        <v>0.9602310000000001</v>
       </c>
       <c r="I8">
-        <v>0.006125621535289911</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="J8">
-        <v>0.00612562153528991</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>38.7083572944</v>
+        <v>19.53801423035434</v>
       </c>
       <c r="R8">
-        <v>348.3752156496</v>
+        <v>175.842128073189</v>
       </c>
       <c r="S8">
-        <v>0.002006332770898339</v>
+        <v>0.03987471106243465</v>
       </c>
       <c r="T8">
-        <v>0.002006332770898339</v>
+        <v>0.03987471106243465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3440333333333334</v>
+        <v>0.320077</v>
       </c>
       <c r="H9">
-        <v>1.0321</v>
+        <v>0.9602310000000001</v>
       </c>
       <c r="I9">
-        <v>0.006125621535289911</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="J9">
-        <v>0.00612562153528991</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>36.57572011953334</v>
+        <v>34.028815333882</v>
       </c>
       <c r="R9">
-        <v>329.1814810758</v>
+        <v>306.259338004938</v>
       </c>
       <c r="S9">
-        <v>0.001895793854978234</v>
+        <v>0.069448673915255</v>
       </c>
       <c r="T9">
-        <v>0.001895793854978234</v>
+        <v>0.069448673915255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3440333333333334</v>
+        <v>0.320077</v>
       </c>
       <c r="H10">
-        <v>1.0321</v>
+        <v>0.9602310000000001</v>
       </c>
       <c r="I10">
-        <v>0.006125621535289911</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="J10">
-        <v>0.00612562153528991</v>
+        <v>0.1951186554194276</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>42.89808582317779</v>
+        <v>42.03840404418533</v>
       </c>
       <c r="R10">
-        <v>386.0827724086</v>
+        <v>378.345636397668</v>
       </c>
       <c r="S10">
-        <v>0.002223494909413337</v>
+        <v>0.08579527044173792</v>
       </c>
       <c r="T10">
-        <v>0.002223494909413338</v>
+        <v>0.08579527044173792</v>
       </c>
     </row>
   </sheetData>
